--- a/docs/ENTREGA 4/Linea base de costes.xlsx
+++ b/docs/ENTREGA 4/Linea base de costes.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
-  <si>
-    <t>Informe del flujo de caja</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Fase1</t>
   </si>
@@ -31,9 +28,6 @@
     <t>Fase 5</t>
   </si>
   <si>
-    <t>Datos</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -67,21 +61,6 @@
     <t>Semana 9</t>
   </si>
   <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>Fase</t>
-  </si>
-  <si>
-    <t>Semana</t>
-  </si>
-  <si>
-    <t>Costo</t>
-  </si>
-  <si>
-    <t>Costo acumulado</t>
-  </si>
-  <si>
     <t>Planificación</t>
   </si>
   <si>
@@ -95,15 +74,6 @@
   </si>
   <si>
     <t>Acumulado</t>
-  </si>
-  <si>
-    <t>Semana 10</t>
-  </si>
-  <si>
-    <t>Total 2022</t>
-  </si>
-  <si>
-    <t>Total general</t>
   </si>
 </sst>
 </file>
@@ -148,7 +118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="6">
     <border/>
     <border>
       <left style="thin">
@@ -196,27 +166,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -224,113 +173,15 @@
       </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
       </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -340,34 +191,22 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
@@ -376,49 +215,7 @@
     <xf borderId="4" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -492,11 +289,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="623286837"/>
-        <c:axId val="585239059"/>
+        <c:axId val="1535978348"/>
+        <c:axId val="1034599438"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="623286837"/>
+        <c:axId val="1535978348"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -548,10 +345,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585239059"/>
+        <c:crossAx val="1034599438"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="585239059"/>
+        <c:axId val="1034599438"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -626,7 +423,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="623286837"/>
+        <c:crossAx val="1535978348"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -719,11 +516,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="611133472"/>
-        <c:axId val="1796137388"/>
+        <c:axId val="1762546124"/>
+        <c:axId val="601278553"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="611133472"/>
+        <c:axId val="1762546124"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -775,10 +572,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1796137388"/>
+        <c:crossAx val="601278553"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1796137388"/>
+        <c:axId val="601278553"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -853,7 +650,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="611133472"/>
+        <c:crossAx val="1762546124"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1143,428 +940,333 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="3"/>
+      <c r="Q1" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="K2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="L2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="M2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="N2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="5" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="G3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="I3" s="9">
+        <v>2642.0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>2642.0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>2642.0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>2642.0</v>
+      </c>
+      <c r="M3" s="9">
+        <v>642.0</v>
+      </c>
+      <c r="N3" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="O3" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="P3" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="G4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="8" t="s">
+      <c r="I4" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>2500.0</v>
+      </c>
+      <c r="N4" s="9">
+        <v>2081.0</v>
+      </c>
+      <c r="O4" s="9">
+        <v>1133.33</v>
+      </c>
+      <c r="P4" s="9">
+        <v>1133.34</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="G5" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="I5" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="N5" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="O5" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="P5" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>954.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="H6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="12">
-        <v>2642.0</v>
-      </c>
-      <c r="J3" s="12">
-        <v>2642.0</v>
-      </c>
-      <c r="K3" s="12">
-        <v>2642.0</v>
-      </c>
-      <c r="L3" s="12">
-        <v>2642.0</v>
-      </c>
-      <c r="M3" s="12">
-        <v>642.0</v>
-      </c>
-      <c r="N3" s="12">
-        <v>500.0</v>
-      </c>
-      <c r="O3" s="12">
-        <v>500.0</v>
-      </c>
-      <c r="P3" s="12">
-        <v>500.0</v>
-      </c>
-      <c r="Q3" s="12">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="8">
-        <v>2022.0</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="14">
-        <v>874.94</v>
-      </c>
-      <c r="E4" s="15">
-        <v>874.94</v>
-      </c>
-      <c r="G4" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="K4" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="L4" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="M4" s="12">
-        <v>2500.0</v>
-      </c>
-      <c r="N4" s="12">
-        <v>2081.0</v>
-      </c>
-      <c r="O4" s="12">
-        <v>1133.33</v>
-      </c>
-      <c r="P4" s="12">
-        <v>1133.34</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="20">
-        <v>775.8</v>
-      </c>
-      <c r="E5" s="21">
-        <v>1650.74</v>
-      </c>
-      <c r="G5" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="L5" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="M5" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="N5" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="O5" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="P5" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>954.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="20">
-        <v>1172.97</v>
-      </c>
-      <c r="E6" s="21">
-        <v>2823.71</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="12">
+      <c r="I6" s="9">
         <f t="shared" ref="I6:I7" si="2">SUM(I3:I5)</f>
         <v>2642</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="13">
         <f>sum(J3,J4,J5)</f>
         <v>2642</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="13">
         <f t="shared" ref="K6:Q6" si="1">SUM(K3:K5)</f>
         <v>2642</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="13">
         <f t="shared" si="1"/>
         <v>2642</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="13">
         <f t="shared" si="1"/>
         <v>3142</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="13">
         <f t="shared" si="1"/>
         <v>2581</v>
       </c>
-      <c r="O6" s="22">
+      <c r="O6" s="13">
         <f t="shared" si="1"/>
         <v>1633.33</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="13">
         <f t="shared" si="1"/>
         <v>1633.34</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="Q6" s="13">
         <f t="shared" si="1"/>
         <v>1454</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="20">
-        <v>1308.45</v>
-      </c>
-      <c r="E7" s="21">
-        <v>4132.16</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="12">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="H7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="9">
         <f t="shared" si="2"/>
         <v>2642</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="13">
         <f t="shared" ref="J7:Q7" si="3">SUM(J6,I7)</f>
         <v>5284</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="13">
         <f t="shared" si="3"/>
         <v>7926</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="13">
         <f t="shared" si="3"/>
         <v>10568</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="13">
         <f t="shared" si="3"/>
         <v>13710</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="13">
         <f t="shared" si="3"/>
         <v>16291</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O7" s="13">
         <f t="shared" si="3"/>
         <v>17924.33</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="13">
         <f t="shared" si="3"/>
         <v>19557.67</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="13">
         <f t="shared" si="3"/>
         <v>21011.67</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="18"/>
-      <c r="B8" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="20">
-        <v>1308.45</v>
-      </c>
-      <c r="E8" s="21">
-        <v>5440.61</v>
-      </c>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="20">
-        <v>1308.45</v>
-      </c>
-      <c r="E9" s="21">
-        <v>6749.06</v>
-      </c>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="20">
-        <v>785.07</v>
-      </c>
-      <c r="E10" s="21">
-        <v>7534.13</v>
-      </c>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="20">
-        <v>850.45</v>
-      </c>
-      <c r="E11" s="21">
-        <v>8384.58</v>
-      </c>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12">
-      <c r="A12" s="18"/>
-      <c r="B12" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="20">
-        <v>880.95</v>
-      </c>
-      <c r="E12" s="21">
-        <v>9265.53</v>
-      </c>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="25">
-        <v>880.95</v>
-      </c>
-      <c r="E13" s="26">
-        <v>10146.48</v>
-      </c>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="27">
-        <v>1443.15</v>
-      </c>
-      <c r="E14" s="28">
-        <v>11589.63</v>
-      </c>
+      <c r="A14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15">
-      <c r="A15" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31">
-        <v>11589.63</v>
-      </c>
-      <c r="E15" s="32">
-        <v>11589.63</v>
-      </c>
+      <c r="A15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
